--- a/data/tables/paradigms_nouns.xlsx
+++ b/data/tables/paradigms_nouns.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jgcha\Desktop\Python\Códigos\tsakonian_dictionary_app\data\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A43E144-9E78-4B87-A520-08343C1EF848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{740F7840-E153-4BB9-AAF1-3291C39D367F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="176">
   <si>
     <t>notes</t>
   </si>
@@ -182,9 +182,6 @@
     <t>σατέρε</t>
   </si>
   <si>
-    <t>άμπελε / άμπελ̣ή</t>
-  </si>
-  <si>
     <t>κρόπο</t>
   </si>
   <si>
@@ -387,6 +384,186 @@
   </si>
   <si>
     <t>το, πλ. -ια, γεν. -ίου</t>
+  </si>
+  <si>
+    <t>δήσε</t>
+  </si>
+  <si>
+    <t>ο, πλ. δησάγου, γεν. ¿δήσε / δήσου?</t>
+  </si>
+  <si>
+    <t>δησάγου</t>
+  </si>
+  <si>
+    <t>κάλυε</t>
+  </si>
+  <si>
+    <t>καλύβου</t>
+  </si>
+  <si>
+    <t>¿κάλυε / κάλυου?</t>
+  </si>
+  <si>
+    <t>¿δήσε / δήσου?</t>
+  </si>
+  <si>
+    <t>ο, πλ. καλύβου, γεν. ¿κάλυε / κάλυου?</t>
+  </si>
+  <si>
+    <t>άθρωπο</t>
+  </si>
+  <si>
+    <t>αθρίποι</t>
+  </si>
+  <si>
+    <t>ο, πλ. αθρίποι</t>
+  </si>
+  <si>
+    <t>άτσ̌ωπο</t>
+  </si>
+  <si>
+    <t>ατσ̌ίποι</t>
+  </si>
+  <si>
+    <t>ο, πλ. ατσ̌ίποι</t>
+  </si>
+  <si>
+    <t>ζ̌οντζοί</t>
+  </si>
+  <si>
+    <t>ζ̌ογγό</t>
+  </si>
+  <si>
+    <t>ο, πλ. ζ̌οντζοί</t>
+  </si>
+  <si>
+    <t>έαφο</t>
+  </si>
+  <si>
+    <t>ο, πλ. εάφου</t>
+  </si>
+  <si>
+    <t>εάφου</t>
+  </si>
+  <si>
+    <t>προβάτα</t>
+  </si>
+  <si>
+    <t>προβατέ</t>
+  </si>
+  <si>
+    <t>αμέρα</t>
+  </si>
+  <si>
+    <t>αμερή</t>
+  </si>
+  <si>
+    <t>γρούσσα</t>
+  </si>
+  <si>
+    <t>γρουσσέ</t>
+  </si>
+  <si>
+    <t>άμπελε / αμπελ̣ή</t>
+  </si>
+  <si>
+    <t>γουναίκα</t>
+  </si>
+  <si>
+    <t>γουναιτ͡σή</t>
+  </si>
+  <si>
+    <t>θάσσα</t>
+  </si>
+  <si>
+    <t>θασσέ</t>
+  </si>
+  <si>
+    <t>γίδα</t>
+  </si>
+  <si>
+    <t>γιδέ</t>
+  </si>
+  <si>
+    <t>καμάρα</t>
+  </si>
+  <si>
+    <t>καμαρέ</t>
+  </si>
+  <si>
+    <t>κατσούα</t>
+  </si>
+  <si>
+    <t>κατσουλέ</t>
+  </si>
+  <si>
+    <t>κοπέα</t>
+  </si>
+  <si>
+    <t>κοπελ̣ή</t>
+  </si>
+  <si>
+    <t>κότ̇α</t>
+  </si>
+  <si>
+    <t>κοτ̇έ</t>
+  </si>
+  <si>
+    <t>κούλικα</t>
+  </si>
+  <si>
+    <t>κουλιτ͡σέ</t>
+  </si>
+  <si>
+    <t>κράκα</t>
+  </si>
+  <si>
+    <t>κρατ͡σέ</t>
+  </si>
+  <si>
+    <t>μοίρα</t>
+  </si>
+  <si>
+    <t>μοιρέ</t>
+  </si>
+  <si>
+    <t>στέρνα</t>
+  </si>
+  <si>
+    <t>στερνέ</t>
+  </si>
+  <si>
+    <t>τ͡σέα</t>
+  </si>
+  <si>
+    <t>τ͡σελ̣ή</t>
+  </si>
+  <si>
+    <t>χέρα</t>
+  </si>
+  <si>
+    <t>χερή</t>
+  </si>
+  <si>
+    <t>χούρα</t>
+  </si>
+  <si>
+    <t>χουρέ</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>regular</t>
+  </si>
+  <si>
+    <t>irregular</t>
+  </si>
+  <si>
+    <t>femenine_genitives</t>
+  </si>
+  <si>
+    <t>source_id</t>
   </si>
 </sst>
 </file>
@@ -443,7 +620,35 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -542,13 +747,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C24BDC91-46F2-4EBF-B033-8809523F8BB9}" name="Tabla2" displayName="Tabla2" ref="A1:D39" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A1:D39" xr:uid="{C24BDC91-46F2-4EBF-B033-8809523F8BB9}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{C1DD779A-CDEE-46F1-B76C-117DD684DD75}" name="paradigm" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{4C03C951-46D8-47E8-8244-B52757673F4E}" name="notes" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{609A5B8E-5629-4586-B79B-AE1549B22E59}" name="gen_sing" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{6942AB54-E07E-494E-972D-0F591766F1A1}" name="plural" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C24BDC91-46F2-4EBF-B033-8809523F8BB9}" name="Tabla2" displayName="Tabla2" ref="A1:F62" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F62" xr:uid="{C24BDC91-46F2-4EBF-B033-8809523F8BB9}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{C1DD779A-CDEE-46F1-B76C-117DD684DD75}" name="paradigm" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{4C03C951-46D8-47E8-8244-B52757673F4E}" name="gen_sing" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{609A5B8E-5629-4586-B79B-AE1549B22E59}" name="plural" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{6942AB54-E07E-494E-972D-0F591766F1A1}" name="source_id" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{E8039F5D-846A-42E9-AFE4-211C549036D2}" name="type" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{3675AC14-66BB-48D6-AEF0-8967B091784A}" name="notes" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -817,496 +1024,1042 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E2" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E3" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E4" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>109</v>
-      </c>
+      <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E5" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B6" s="1"/>
+      <c r="C6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B7" s="1"/>
+      <c r="C7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B8" s="1"/>
+      <c r="C8" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>112</v>
+      <c r="B9" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B10" s="1"/>
+      <c r="C10" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>113</v>
+      <c r="B11" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>110</v>
-      </c>
+      <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E12" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="1"/>
+      <c r="C13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B15" s="1"/>
+      <c r="C15" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B16" s="1"/>
+      <c r="C16" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B17" s="1"/>
+      <c r="C17" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>111</v>
-      </c>
+      <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E18" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>114</v>
+      <c r="B19" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>115</v>
+      <c r="B20" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>116</v>
+      <c r="B21" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B22" s="1"/>
+      <c r="C22" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B23" s="1"/>
+      <c r="C23" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1" t="s">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D24" s="1"/>
+      <c r="E24" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1" t="s">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D25" s="1"/>
+      <c r="E25" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1" t="s">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D26" s="1"/>
+      <c r="E26" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>103</v>
+        <v>36</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D27" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D27" s="1"/>
+      <c r="E27" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>104</v>
+        <v>39</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D28" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D28" s="1"/>
+      <c r="E28" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D29" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D29" s="1"/>
+      <c r="E29" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>105</v>
+        <v>46</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D30" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D30" s="1"/>
+      <c r="E30" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>64</v>
-      </c>
+    </row>
+    <row r="40" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D40" s="1">
+        <v>3</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D41" s="1">
+        <v>3</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D42" s="1">
+        <v>3</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D43" s="1">
+        <v>3</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D44" s="1">
+        <v>3</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D45" s="1">
+        <v>3</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1">
+        <v>3</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F46" s="1"/>
+    </row>
+    <row r="47" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1">
+        <v>3</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F47" s="1"/>
+    </row>
+    <row r="48" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1">
+        <v>3</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F48" s="1"/>
+    </row>
+    <row r="49" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1">
+        <v>3</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F49" s="1"/>
+    </row>
+    <row r="50" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1">
+        <v>3</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F50" s="1"/>
+    </row>
+    <row r="51" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1">
+        <v>3</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F51" s="1"/>
+    </row>
+    <row r="52" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1">
+        <v>3</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F52" s="1"/>
+    </row>
+    <row r="53" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1">
+        <v>3</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F53" s="1"/>
+    </row>
+    <row r="54" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1">
+        <v>3</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F54" s="1"/>
+    </row>
+    <row r="55" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1">
+        <v>3</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F55" s="1"/>
+    </row>
+    <row r="56" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1">
+        <v>3</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F56" s="1"/>
+    </row>
+    <row r="57" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1">
+        <v>3</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F57" s="1"/>
+    </row>
+    <row r="58" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1">
+        <v>3</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F58" s="1"/>
+    </row>
+    <row r="59" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1">
+        <v>3</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F59" s="1"/>
+    </row>
+    <row r="60" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1">
+        <v>3</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F60" s="1"/>
+    </row>
+    <row r="61" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1">
+        <v>3</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F61" s="1"/>
+    </row>
+    <row r="62" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1">
+        <v>3</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F62" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data/tables/paradigms_nouns.xlsx
+++ b/data/tables/paradigms_nouns.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jgcha\Desktop\Python\Códigos\tsakonian_dictionary_app\data\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{740F7840-E153-4BB9-AAF1-3291C39D367F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B0E720-5DB8-4049-A7D8-16D35D88B58A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -751,11 +751,11 @@
   <autoFilter ref="A1:F62" xr:uid="{C24BDC91-46F2-4EBF-B033-8809523F8BB9}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{C1DD779A-CDEE-46F1-B76C-117DD684DD75}" name="paradigm" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{4C03C951-46D8-47E8-8244-B52757673F4E}" name="gen_sing" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{609A5B8E-5629-4586-B79B-AE1549B22E59}" name="plural" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{6942AB54-E07E-494E-972D-0F591766F1A1}" name="source_id" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{E8039F5D-846A-42E9-AFE4-211C549036D2}" name="type" dataDxfId="0"/>
-    <tableColumn id="6" xr3:uid="{3675AC14-66BB-48D6-AEF0-8967B091784A}" name="notes" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{4C03C951-46D8-47E8-8244-B52757673F4E}" name="gen_sing" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{609A5B8E-5629-4586-B79B-AE1549B22E59}" name="plural" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{6942AB54-E07E-494E-972D-0F591766F1A1}" name="source_id" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{E8039F5D-846A-42E9-AFE4-211C549036D2}" name="type" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{3675AC14-66BB-48D6-AEF0-8967B091784A}" name="notes" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1026,8 +1026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2064,8 +2064,9 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/data/tables/paradigms_nouns.xlsx
+++ b/data/tables/paradigms_nouns.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jgcha\Desktop\Python\Códigos\tsakonian_dictionary_app\data\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B0E720-5DB8-4049-A7D8-16D35D88B58A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8432AE84-432C-4611-9C69-5FF51CA9C51D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,9 +41,6 @@
     <t>notes</t>
   </si>
   <si>
-    <t>A5</t>
-  </si>
-  <si>
     <t>Θ1</t>
   </si>
   <si>
@@ -564,6 +561,9 @@
   </si>
   <si>
     <t>source_id</t>
+  </si>
+  <si>
+    <t>Α5</t>
   </si>
 </sst>
 </file>
@@ -1026,8 +1026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1041,19 +1041,19 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
@@ -1061,1003 +1061,1003 @@
     </row>
     <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>1</v>
+        <v>175</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D40" s="1">
+        <v>3</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D40" s="1">
-        <v>3</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="D41" s="1">
         <v>3</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D42" s="1">
+        <v>3</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F42" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="D42" s="1">
-        <v>3</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D43" s="1">
+        <v>3</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="D43" s="1">
-        <v>3</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D44" s="1">
         <v>3</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D45" s="1">
         <v>3</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1">
         <v>3</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F46" s="1"/>
     </row>
     <row r="47" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1">
         <v>3</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F47" s="1"/>
     </row>
     <row r="48" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1">
         <v>3</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F48" s="1"/>
     </row>
     <row r="49" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1">
         <v>3</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F49" s="1"/>
     </row>
     <row r="50" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>146</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1">
         <v>3</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F50" s="1"/>
     </row>
     <row r="51" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1">
         <v>3</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F51" s="1"/>
     </row>
     <row r="52" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1">
         <v>3</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F52" s="1"/>
     </row>
     <row r="53" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1">
         <v>3</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F53" s="1"/>
     </row>
     <row r="54" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1">
         <v>3</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F54" s="1"/>
     </row>
     <row r="55" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>156</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1">
         <v>3</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F55" s="1"/>
     </row>
     <row r="56" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1">
         <v>3</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F56" s="1"/>
     </row>
     <row r="57" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1">
         <v>3</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F57" s="1"/>
     </row>
     <row r="58" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>162</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1">
         <v>3</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F58" s="1"/>
     </row>
     <row r="59" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>164</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1">
         <v>3</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F59" s="1"/>
     </row>
     <row r="60" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>166</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1">
         <v>3</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F60" s="1"/>
     </row>
     <row r="61" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1">
         <v>3</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F61" s="1"/>
     </row>
     <row r="62" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>170</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1">
         <v>3</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F62" s="1"/>
     </row>

--- a/data/tables/paradigms_nouns.xlsx
+++ b/data/tables/paradigms_nouns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jgcha\Desktop\Python\Códigos\tsakonian_dictionary_app\data\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8432AE84-432C-4611-9C69-5FF51CA9C51D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C29D22B-0860-4F4E-A958-EFD488B4774D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1026,8 +1026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
